--- a/2do año/Sexto Semestre/ISO/Practicas/p5/ejerciciosMemoria.xlsx
+++ b/2do año/Sexto Semestre/ISO/Practicas/p5/ejerciciosMemoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\2do año\Sexto Semestre\ISO\Practicas\p5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF18500-DBDC-4E8E-9B8D-6CF88462B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A728CDE-105A-4148-8641-39B0AFD915FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6F74656-9E7E-4B21-A372-AD8B8ADE572E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="24">
   <si>
     <t>Marco/Pagina</t>
   </si>
@@ -76,6 +76,39 @@
   <si>
     <t>LRU</t>
   </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>Un parcial LRU</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +188,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB21EC8E-F4FE-46EA-89D5-8E6AF636A410}">
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,6 +2667,785 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3">
+        <v>6</v>
+      </c>
+      <c r="K50" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3">
+        <v>4</v>
+      </c>
+      <c r="G51" s="3">
+        <v>3</v>
+      </c>
+      <c r="H51" s="3">
+        <v>3</v>
+      </c>
+      <c r="I51" s="3">
+        <v>3</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3</v>
+      </c>
+      <c r="K51" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>6</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="3">
+        <v>2</v>
+      </c>
+      <c r="N59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2</v>
+      </c>
+      <c r="I61" s="5">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <v>3</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="5">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="I67" s="5">
+        <v>5</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3">
+        <v>6</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>2</v>
+      </c>
+      <c r="N67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2</v>
+      </c>
+      <c r="I69" s="5">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3">
+        <v>4</v>
+      </c>
+      <c r="I70" s="5">
+        <v>5</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
+        <v>3</v>
+      </c>
+      <c r="H71" s="3">
+        <v>3</v>
+      </c>
+      <c r="I71" s="5">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2do año/Sexto Semestre/ISO/Practicas/p5/ejerciciosMemoria.xlsx
+++ b/2do año/Sexto Semestre/ISO/Practicas/p5/ejerciciosMemoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\2do año\Sexto Semestre\ISO\Practicas\p5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A728CDE-105A-4148-8641-39B0AFD915FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564CDBC-A932-4D0F-A1D6-8C076C4EA839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6F74656-9E7E-4B21-A372-AD8B8ADE572E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="28">
   <si>
     <t>Marco/Pagina</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>OPT</t>
+  </si>
+  <si>
+    <t>2 chance</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>4*</t>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB21EC8E-F4FE-46EA-89D5-8E6AF636A410}">
-  <dimension ref="A1:AZ72"/>
+  <dimension ref="A1:AZ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q72" sqref="Q72"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,6 +3458,794 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4</v>
+      </c>
+      <c r="I75" s="5">
+        <v>5</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>6</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3">
+        <v>2</v>
+      </c>
+      <c r="N75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2</v>
+      </c>
+      <c r="H77" s="3">
+        <v>2</v>
+      </c>
+      <c r="I77" s="5">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3">
+        <v>4</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3">
+        <v>4</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4</v>
+      </c>
+      <c r="I78" s="5">
+        <v>4</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
+        <v>3</v>
+      </c>
+      <c r="H79" s="3">
+        <v>3</v>
+      </c>
+      <c r="I79" s="5">
+        <v>3</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4</v>
+      </c>
+      <c r="I83" s="5">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3">
+        <v>6</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2</v>
+      </c>
+      <c r="N83" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2</v>
+      </c>
+      <c r="H85" s="3">
+        <v>2</v>
+      </c>
+      <c r="I85" s="5">
+        <v>5</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4</v>
+      </c>
+      <c r="I86" s="5">
+        <v>4</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3">
+        <v>3</v>
+      </c>
+      <c r="H87" s="3">
+        <v>3</v>
+      </c>
+      <c r="I87" s="5">
+        <v>3</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4</v>
+      </c>
+      <c r="I91" s="5">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1</v>
+      </c>
+      <c r="K91" s="3">
+        <v>6</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
+      <c r="M91" s="3">
+        <v>2</v>
+      </c>
+      <c r="N91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" s="5">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="5">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3">
+        <v>3</v>
+      </c>
+      <c r="H95" s="3">
+        <v>3</v>
+      </c>
+      <c r="I95" s="5">
+        <v>5</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3">
+        <v>3</v>
+      </c>
+      <c r="H99" s="3">
+        <v>4</v>
+      </c>
+      <c r="I99" s="5">
+        <v>5</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3">
+        <v>6</v>
+      </c>
+      <c r="L99" s="3">
+        <v>1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>2</v>
+      </c>
+      <c r="N99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2</v>
+      </c>
+      <c r="I101" s="5">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4</v>
+      </c>
+      <c r="I102" s="5">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
+        <v>3</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3</v>
+      </c>
+      <c r="I103" s="5">
+        <v>3</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
